--- a/test_data/cai/invoice/记发票测试数据.xlsx
+++ b/test_data/cai/invoice/记发票测试数据.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-test/test_data/cai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-test/test_data/cai/invoice/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-2620" yWindow="-18300" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
-    <sheet name="记所有类别的收票" sheetId="1" r:id="rId2"/>
-    <sheet name="记所有类别的开票" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="记所有类别的收票yb" sheetId="1" r:id="rId2"/>
+    <sheet name="记所有类别的开票yb" sheetId="2" r:id="rId3"/>
+    <sheet name="记所有类别的开票xgm" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="355">
   <si>
     <t>发票类型0</t>
     <rPh sb="0" eb="1">
@@ -39,7 +40,7 @@
     <rPh sb="2" eb="3">
       <t>lei x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对方信息1</t>
@@ -49,7 +50,7 @@
     <rPh sb="2" eb="3">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发票号2</t>
@@ -59,14 +60,14 @@
     <rPh sb="2" eb="3">
       <t>hao</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类别3</t>
     <rPh sb="0" eb="1">
       <t>lei b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门性质4</t>
@@ -76,14 +77,14 @@
     <rPh sb="2" eb="3">
       <t>xing zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税率5</t>
     <rPh sb="0" eb="1">
       <t>shui lü</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>进项税类别6</t>
@@ -93,35 +94,35 @@
     <rPh sb="3" eb="4">
       <t>lei b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>价税合计7</t>
     <rPh sb="0" eb="1">
       <t>jia shui he j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注8</t>
     <rPh sb="0" eb="1">
       <t>bei zhu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>场景9</t>
     <rPh sb="0" eb="1">
       <t>chang j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结果10</t>
     <rPh sb="0" eb="1">
       <t>jie guo</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发票类型0</t>
@@ -131,7 +132,7 @@
     <rPh sb="2" eb="3">
       <t>lei x</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发票状态1</t>
@@ -141,7 +142,7 @@
     <rPh sb="2" eb="3">
       <t>zhuang t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>对方信息2</t>
@@ -151,7 +152,7 @@
     <rPh sb="2" eb="3">
       <t>xin xi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发票号码3</t>
@@ -161,14 +162,14 @@
     <rPh sb="2" eb="3">
       <t>hao ma</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类别4</t>
     <rPh sb="0" eb="1">
       <t>lei b</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>部门性质5</t>
@@ -178,70 +179,70 @@
     <rPh sb="2" eb="3">
       <t>xing zhi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税率6</t>
     <rPh sb="0" eb="1">
       <t>shui lü</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票</t>
     <rPh sb="0" eb="1">
       <t>pu p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(个)其他</t>
     <rPh sb="3" eb="4">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>福利费</t>
     <rPh sb="0" eb="1">
       <t>fu li fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>劳务费</t>
     <rPh sb="0" eb="1">
       <t>lao wu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>招待费</t>
     <rPh sb="0" eb="1">
       <t>zhao dai fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>办公费</t>
     <rPh sb="0" eb="1">
       <t>ban gong fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>快递费</t>
     <rPh sb="0" eb="1">
       <t>kuai di f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>维修费</t>
     <rPh sb="0" eb="1">
       <t>wei xiu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>财产保险费</t>
@@ -251,7 +252,7 @@
     <rPh sb="2" eb="3">
       <t>bao xian fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设备租赁费</t>
@@ -261,7 +262,7 @@
     <rPh sb="2" eb="3">
       <t>zu lin fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银行费用</t>
@@ -271,28 +272,28 @@
     <rPh sb="2" eb="3">
       <t>fei yong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>差旅费</t>
     <rPh sb="0" eb="1">
       <t>chai lü fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交通费</t>
     <rPh sb="0" eb="1">
       <t>jiao tong fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>路桥费</t>
     <rPh sb="0" eb="1">
       <t>lu qiao fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汽车维修费</t>
@@ -302,7 +303,7 @@
     <rPh sb="2" eb="3">
       <t>wei xiu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汽车保险费</t>
@@ -312,77 +313,77 @@
     <rPh sb="2" eb="3">
       <t>bao xian fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物流费</t>
     <rPh sb="0" eb="1">
       <t>wu liu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房租费</t>
     <rPh sb="0" eb="1">
       <t>fang zu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>物业费</t>
     <rPh sb="0" eb="1">
       <t>wu ye fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>水费</t>
     <rPh sb="0" eb="1">
       <t>shui fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电费</t>
     <rPh sb="0" eb="1">
       <t>dian fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仓储费</t>
     <rPh sb="0" eb="1">
       <t>cang chu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>装修费</t>
     <rPh sb="0" eb="1">
       <t>zhuang xiu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>广告费</t>
     <rPh sb="0" eb="1">
       <t>guang gao fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宣传费</t>
     <rPh sb="0" eb="1">
       <t>xuan chuan fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>研发费</t>
     <rPh sb="0" eb="1">
       <t>yan fa fe</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>会议费</t>
@@ -392,21 +393,21 @@
     <rPh sb="2" eb="3">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>服务费</t>
     <rPh sb="0" eb="1">
       <t>fu wu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>咨询费</t>
     <rPh sb="0" eb="1">
       <t>zi xun fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>认证费</t>
@@ -416,7 +417,7 @@
     <rPh sb="2" eb="3">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专利费</t>
@@ -426,21 +427,21 @@
     <rPh sb="2" eb="3">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>行政罚款</t>
     <rPh sb="0" eb="1">
       <t>xing zhng fa k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税务滞纳金</t>
@@ -450,35 +451,35 @@
     <rPh sb="2" eb="3">
       <t>zhi na j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>印花税</t>
     <rPh sb="0" eb="1">
       <t>yin hua s</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>残保金</t>
     <rPh sb="0" eb="1">
       <t>can bao j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>减免税款</t>
     <rPh sb="0" eb="1">
       <t>jian mian shui k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>原材料</t>
     <rPh sb="0" eb="1">
       <t>yuan cai l</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商品产品</t>
@@ -488,53 +489,53 @@
     <rPh sb="2" eb="3">
       <t>chan p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1.5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专票</t>
     <rPh sb="0" eb="1">
       <t>zhuan p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>汽油费</t>
     <rPh sb="0" eb="1">
       <t>qi you fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有形动产租赁</t>
@@ -544,7 +545,7 @@
     <rPh sb="4" eb="5">
       <t>zu lin</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>运输服务</t>
@@ -554,7 +555,7 @@
     <rPh sb="2" eb="3">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电信服务</t>
@@ -564,7 +565,7 @@
     <rPh sb="2" eb="3">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑安装服务</t>
@@ -577,7 +578,7 @@
     <rPh sb="4" eb="5">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金融保险服务</t>
@@ -590,7 +591,7 @@
     <rPh sb="4" eb="5">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生活服务</t>
@@ -600,7 +601,7 @@
     <rPh sb="2" eb="3">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>货物及加工，修理修配劳务</t>
@@ -622,11 +623,11 @@
     <rPh sb="10" eb="11">
       <t>lao wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生活服务</t>
@@ -636,11 +637,11 @@
     <rPh sb="2" eb="3">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑安装服务</t>
@@ -653,7 +654,7 @@
     <rPh sb="4" eb="5">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不动产租赁服务</t>
@@ -666,22 +667,22 @@
     <rPh sb="5" eb="6">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
     <rPh sb="0" eb="1">
       <t>qi t</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有形动产租赁</t>
@@ -691,7 +692,7 @@
     <rPh sb="4" eb="5">
       <t>zu l</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记专票收票</t>
@@ -704,7 +705,7 @@
     <rPh sb="3" eb="4">
       <t>sho p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记普票收票</t>
@@ -717,14 +718,14 @@
     <rPh sb="3" eb="4">
       <t>shou p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
     <rPh sb="0" eb="1">
       <t>cheng gong</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税控自开</t>
@@ -737,7 +738,7 @@
     <rPh sb="3" eb="4">
       <t>kai</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税务代开</t>
@@ -747,7 +748,7 @@
     <rPh sb="2" eb="3">
       <t>dai k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>商品销售</t>
@@ -757,7 +758,7 @@
     <rPh sb="2" eb="3">
       <t>xiao shou</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>服务收入</t>
@@ -767,7 +768,7 @@
     <rPh sb="2" eb="3">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销售部门</t>
@@ -777,38 +778,38 @@
     <rPh sb="2" eb="3">
       <t>bu m</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>13%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>17%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>无票</t>
     <rPh sb="0" eb="1">
       <t>wu p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>未开发票</t>
@@ -818,7 +819,7 @@
     <rPh sb="2" eb="3">
       <t>fa p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记普票开票</t>
@@ -831,7 +832,7 @@
     <rPh sb="3" eb="4">
       <t>kai p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记专票开票</t>
@@ -844,7 +845,7 @@
     <rPh sb="3" eb="4">
       <t>kai p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>记无票开票</t>
@@ -857,14 +858,14 @@
     <rPh sb="3" eb="4">
       <t>kai p</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>成功</t>
     <rPh sb="0" eb="1">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，福利费，福利费56020104-临时借入款22410101</t>
@@ -889,7 +890,7 @@
     <rPh sb="26" eb="27">
       <t>jie ru k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，劳务费，劳务费56020105－临时借入款22410101</t>
@@ -905,7 +906,7 @@
     <rPh sb="10" eb="11">
       <t>lao wu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，招待费，招待费56020201-临时借入款22410101</t>
@@ -924,7 +925,7 @@
     <rPh sb="12" eb="13">
       <t>zhao dai f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，快递费，快递费56020203-临时借入款22410101</t>
@@ -943,7 +944,7 @@
     <rPh sb="12" eb="13">
       <t>kuai di f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，办公费，办公费56020202-临时借入款22410101</t>
@@ -959,7 +960,7 @@
     <rPh sb="10" eb="11">
       <t>ban gong f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，维修费，维修费56020204-临时借入款22410101</t>
@@ -975,7 +976,7 @@
     <rPh sb="10" eb="11">
       <t>wei xiu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，财产保险费，财产保险费56020206-临时借入款22410101</t>
@@ -994,7 +995,7 @@
     <rPh sb="14" eb="15">
       <t>cai chan bao xian f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，设备租赁费，设备租赁费56020207-临时借入款22410101</t>
@@ -1016,7 +1017,7 @@
     <rPh sb="14" eb="15">
       <t>zu lin f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，银行费用，手续费560302-临时借入款22410101</t>
@@ -1035,7 +1036,7 @@
     <rPh sb="13" eb="14">
       <t>shou xu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，差旅费，差旅费56020301-临时借入款22410101</t>
@@ -1051,7 +1052,7 @@
     <rPh sb="10" eb="11">
       <t>chai lü f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，交通费，交通费56020302-临时借入款22410101</t>
@@ -1067,7 +1068,7 @@
     <rPh sb="12" eb="13">
       <t>jiao tong f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，汽油费，汽油费56020303-临时借入款22410101</t>
@@ -1083,7 +1084,7 @@
     <rPh sb="10" eb="11">
       <t>qi you f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，汽车维修费，汽车维修费56020305-临时借入款22410101</t>
@@ -1108,7 +1109,7 @@
     <rPh sb="14" eb="15">
       <t>wei xiu fi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，路桥费，路桥费56020304－临时借入款22410101</t>
@@ -1124,7 +1125,7 @@
     <rPh sb="12" eb="13">
       <t>lu qiao f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，汽车保险费，汽车保险费56020306-临时借入款22410101</t>
@@ -1146,7 +1147,7 @@
     <rPh sb="18" eb="19">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，物流费，物流费56020307-临时借入款22410101</t>
@@ -1162,7 +1163,7 @@
     <rPh sb="10" eb="11">
       <t>wu liu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，物业费，物业费56020402-临时借入款22410101</t>
@@ -1178,7 +1179,7 @@
     <rPh sb="10" eb="11">
       <t>wu ye f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，房租费，房租费56020401-临时借入款22410101</t>
@@ -1197,7 +1198,7 @@
     <rPh sb="12" eb="13">
       <t>fang zu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，水费，水费56020403-临时借入款22410101</t>
@@ -1213,7 +1214,7 @@
     <rPh sb="11" eb="12">
       <t>shui fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，电费，电费56020404-临时借入款22410101</t>
@@ -1229,7 +1230,7 @@
     <rPh sb="9" eb="10">
       <t>dian fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，仓储费，仓储费56020405-临时借入款22410101</t>
@@ -1245,7 +1246,7 @@
     <rPh sb="12" eb="13">
       <t>cang chu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，装修费，装修费56020406-临时借入款22410101</t>
@@ -1261,7 +1262,7 @@
     <rPh sb="10" eb="11">
       <t>zhuang xiu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，广告费，广告费56020501-临时借入款22410101</t>
@@ -1277,7 +1278,7 @@
     <rPh sb="12" eb="13">
       <t>guang gao f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，宣传费，宣传费56020502-临时借入款22410101</t>
@@ -1293,7 +1294,7 @@
     <rPh sb="10" eb="11">
       <t>xuan chuan f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，研发费，研发费56020503-临时借入款22410101</t>
@@ -1309,7 +1310,7 @@
     <rPh sb="12" eb="13">
       <t>yan fa f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，会议费，会议费56020504-临时借入款22410101</t>
@@ -1325,7 +1326,7 @@
     <rPh sb="10" eb="11">
       <t>hui yi f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，服务费，服务费56020505-临时借入款22410101</t>
@@ -1341,7 +1342,7 @@
     <rPh sb="12" eb="13">
       <t>fu wu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，咨询费，咨询费56020506-临时借入款22410101</t>
@@ -1357,7 +1358,7 @@
     <rPh sb="10" eb="11">
       <t>zi xun f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，认证费，认证费56020507-临时借入款22410101</t>
@@ -1373,7 +1374,7 @@
     <rPh sb="12" eb="13">
       <t>ren zheng f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，专利费，专利费56020508-临时借入款22410101</t>
@@ -1389,7 +1390,7 @@
     <rPh sb="10" eb="11">
       <t>zhuan li fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，工会经费，工会经费56020509-临时借入款22410101</t>
@@ -1408,7 +1409,7 @@
     <rPh sb="13" eb="14">
       <t>gong hui jing fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，其他，其他560299-临时借入款22410101</t>
@@ -1424,7 +1425,7 @@
     <rPh sb="9" eb="10">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，行政罚款，行政罚款571106-临时借入款22410101</t>
@@ -1440,7 +1441,7 @@
     <rPh sb="13" eb="14">
       <t>xing zheng fa k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，税务滞纳金，税务滞纳金571105-临时借入款22410101</t>
@@ -1459,7 +1460,7 @@
     <rPh sb="12" eb="13">
       <t>shui wu zhi na j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，印花税，印花税560309-临时借入款22410101</t>
@@ -1475,7 +1476,7 @@
     <rPh sb="12" eb="13">
       <t>yin hua s</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，残保金，残保金540314-临时借入款22410101</t>
@@ -1491,7 +1492,7 @@
     <rPh sb="10" eb="11">
       <t>can bao j</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，原材料，原材料140301-单位220201</t>
@@ -1510,7 +1511,7 @@
     <rPh sb="22" eb="23">
       <t>dan wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，商品产品，库存商品140501-单位220202</t>
@@ -1535,7 +1536,7 @@
     <rPh sb="22" eb="23">
       <t>dan wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专票，其他，福利费，福利费56020104、待抵扣进项税1221033-临时借入款22410101</t>
@@ -1563,7 +1564,7 @@
     <rPh sb="38" eb="39">
       <t>jie ru k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，招待费，招待费56020201、待抵扣进项税122103-临时借入款22410101</t>
@@ -1582,7 +1583,7 @@
     <rPh sb="12" eb="13">
       <t>zhao dai f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，办公费，办公费56020202、待抵扣进项税122103-临时借入款22410101</t>
@@ -1598,7 +1599,7 @@
     <rPh sb="10" eb="11">
       <t>ban gong f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，快递费，快递费56020203、待抵扣进项税122103-临时借入款22410101</t>
@@ -1617,7 +1618,7 @@
     <rPh sb="12" eb="13">
       <t>kuai di f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，维修费，维修费56020204、待抵扣进项税122103-临时借入款22410101</t>
@@ -1633,7 +1634,7 @@
     <rPh sb="10" eb="11">
       <t>wei xiu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，财产保险费，财产保险费56020206、待抵扣进项税122103-临时借入款22410101</t>
@@ -1652,7 +1653,7 @@
     <rPh sb="14" eb="15">
       <t>cai chan bao xian f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，设备租赁费，设备租赁费56020207、待抵扣进项税122103-临时借入款22410101</t>
@@ -1674,7 +1675,7 @@
     <rPh sb="14" eb="15">
       <t>zu lin f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，银行费用，手续费560302、待抵扣进项税122103-临时借入款22410101</t>
@@ -1693,7 +1694,7 @@
     <rPh sb="13" eb="14">
       <t>shou xu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，差旅费，差旅费56020301、待抵扣进项税122103-临时借入款22410101</t>
@@ -1709,7 +1710,7 @@
     <rPh sb="10" eb="11">
       <t>chai lü f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，交通费，交通费56020302、待抵扣进项税122103-临时借入款22410101</t>
@@ -1725,7 +1726,7 @@
     <rPh sb="12" eb="13">
       <t>jiao tong f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，汽油费，汽油费56020303、待抵扣进项税122103-临时借入款22410101</t>
@@ -1741,7 +1742,7 @@
     <rPh sb="10" eb="11">
       <t>qi you f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，路桥费，路桥费56020304、待抵扣进项税122103－临时借入款22410101</t>
@@ -1757,7 +1758,7 @@
     <rPh sb="12" eb="13">
       <t>lu qiao f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，汽车维修费，汽车维修费56020305、待抵扣进项税122103-临时借入款22410101</t>
@@ -1782,7 +1783,7 @@
     <rPh sb="14" eb="15">
       <t>wei xiu fi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，汽车保险费，汽车保险费56020306、待抵扣进项税122103-临时借入款22410101</t>
@@ -1804,7 +1805,7 @@
     <rPh sb="18" eb="19">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，物流费，物流费56020307、待抵扣进项税122103-临时借入款22410101</t>
@@ -1820,7 +1821,7 @@
     <rPh sb="10" eb="11">
       <t>wu liu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，房租费，房租费56020401、待抵扣进项税122103-临时借入款22410101</t>
@@ -1839,7 +1840,7 @@
     <rPh sb="12" eb="13">
       <t>fang zu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，物业费，物业费56020402、待抵扣进项税122103-临时借入款22410101</t>
@@ -1855,7 +1856,7 @@
     <rPh sb="10" eb="11">
       <t>wu ye f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，水费，水费56020403、待抵扣进项税122103-临时借入款22410101</t>
@@ -1871,7 +1872,7 @@
     <rPh sb="11" eb="12">
       <t>shui fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，电费，电费56020404、待抵扣进项税122103-临时借入款22410101</t>
@@ -1887,7 +1888,7 @@
     <rPh sb="9" eb="10">
       <t>dian fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，仓储费，仓储费56020405、待抵扣进项税122103-临时借入款22410101</t>
@@ -1903,7 +1904,7 @@
     <rPh sb="12" eb="13">
       <t>cang chu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，装修费，装修费56020406、待抵扣进项税122103-临时借入款22410101</t>
@@ -1919,7 +1920,7 @@
     <rPh sb="10" eb="11">
       <t>zhuang xiu fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，广告费，广告费56020501、待抵扣进项税122103-临时借入款22410101</t>
@@ -1935,7 +1936,7 @@
     <rPh sb="12" eb="13">
       <t>guang gao f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，宣传费，宣传费56020502、待抵扣进项税122103-临时借入款22410101</t>
@@ -1951,7 +1952,7 @@
     <rPh sb="10" eb="11">
       <t>xuan chuan f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，研发费，研发费56020503、待抵扣进项税122103-临时借入款22410101</t>
@@ -1967,7 +1968,7 @@
     <rPh sb="12" eb="13">
       <t>yan fa f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，会议费，会议费56020504、待抵扣进项税122103-临时借入款22410101</t>
@@ -1983,7 +1984,7 @@
     <rPh sb="10" eb="11">
       <t>hui yi f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，服务费，服务费56020505、待抵扣进项税122103-临时借入款22410101</t>
@@ -1999,7 +2000,7 @@
     <rPh sb="12" eb="13">
       <t>fu wu f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，咨询费，咨询费56020506、待抵扣进项税122103-临时借入款22410101</t>
@@ -2015,7 +2016,7 @@
     <rPh sb="10" eb="11">
       <t>zi xun f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，认证费，认证费56020507、待抵扣进项税122103-临时借入款22410101</t>
@@ -2031,7 +2032,7 @@
     <rPh sb="12" eb="13">
       <t>ren zheng f</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，专利费，专利费56020508、待抵扣进项税122103-临时借入款22410101</t>
@@ -2047,7 +2048,7 @@
     <rPh sb="10" eb="11">
       <t>zhuan li fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，其他，其他560299、待抵扣进项税122103-临时借入款22410101</t>
@@ -2063,7 +2064,7 @@
     <rPh sb="9" eb="10">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，原材料，原材料140301、待抵扣进项税1221033-单位220201</t>
@@ -2082,7 +2083,7 @@
     <rPh sb="36" eb="37">
       <t>dan wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，其他，商品产品，库存商品140501、待抵扣进项税1221033-单位220202</t>
@@ -2107,7 +2108,7 @@
     <rPh sb="36" eb="37">
       <t>dan wei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，工会经费，工会经费56020509、待抵扣进项税122103-临时借入款22410101</t>
@@ -2126,7 +2127,7 @@
     <rPh sb="13" eb="14">
       <t>gong hui jing fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，内部代表，减免税款，减免税款222117-临时借入款22410102</t>
@@ -2145,7 +2146,7 @@
     <rPh sb="13" eb="14">
       <t>jian mian shui k</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，税控自开，其他，商品销售，单位112201－商品销售收入500101</t>
@@ -2179,7 +2180,7 @@
     <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，税务代开，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
@@ -2201,7 +2202,7 @@
     <rPh sb="27" eb="28">
       <t>fu wu shjou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，税控自开，其他，商品销售，单位112201－商品销售收入500101、销项税22210106</t>
@@ -2235,7 +2236,7 @@
     <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专票，税控自开，其他，商品销售，单位112201－商品销售收入500101</t>
@@ -2269,7 +2270,7 @@
     <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专票，税务代开，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
@@ -2291,7 +2292,7 @@
     <rPh sb="27" eb="28">
       <t>fu wu shjou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>专票，税控自开，其他，商品销售，单位112201－商品销售收入500101、销项税22210106</t>
@@ -2325,7 +2326,7 @@
     <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，不开发票，其他，商品销售，单位112201－商品销售收入500101</t>
@@ -2359,7 +2360,7 @@
     <rPh sb="29" eb="30">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>普票，不开发票，内部代表，服务收入，单位112201－服务收入500103、销项税22210106</t>
@@ -2381,22 +2382,22 @@
     <rPh sb="27" eb="28">
       <t>fu wu shjou ru</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(个)内部代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(个)内部代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>(个)其他</t>
     <rPh sb="4" eb="5">
       <t>qi ta</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工会经费</t>
@@ -2406,7 +2407,7 @@
     <rPh sb="2" eb="3">
       <t>jing fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不动产租赁服务</t>
@@ -2419,7 +2420,7 @@
     <rPh sb="5" eb="6">
       <t>fu wu</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工会经费</t>
@@ -2432,7 +2433,7 @@
     <rPh sb="3" eb="4">
       <t>fei</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>管理部</t>
@@ -2442,7 +2443,7 @@
     <rPh sb="2" eb="3">
       <t>bu m</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销售部</t>
@@ -2452,7 +2453,7 @@
     <rPh sb="2" eb="3">
       <t>bu men</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>销售部</t>
@@ -2462,374 +2463,843 @@
     <rPh sb="2" eb="3">
       <t>bu m</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5305.94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5406.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5506.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5606.27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5706.38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5806.49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5906.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6006.71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6106.82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6206.93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6307.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6407.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6507.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6607.37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6707.48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6807.59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6907.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7007.81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7107.92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7208.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7308.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7408.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7508.36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7608.47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7708.58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7808.69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7908.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8008.91</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8109.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8209.13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8309.24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8409.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8609.57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8509.46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8709.68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8809.79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>8909.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9010.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>100.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>200.33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>300.44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>400.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>500.66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>600.77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>700.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>800.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>901.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1001.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1101.32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1201.43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1301.54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1401.65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1501.76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1601.87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1701.98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1802.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1902.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2002.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2102.42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2202.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2302.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2402.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2502.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2602.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2703.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2803.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2903.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3003.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3103.52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3203.63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3303.74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3403.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3503.96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3604.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3704.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3904.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3804.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4004.51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4104.62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4204.73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4304.84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4404.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4505.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4605.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4705.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4805.39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4905.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5005.61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5105.72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5205.83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价税合计6</t>
+    <rPh sb="0" eb="1">
+      <t>jia shui he j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注7</t>
+    <rPh sb="0" eb="1">
+      <t>bei zhu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景8</t>
+    <rPh sb="0" eb="1">
+      <t>chang j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果9</t>
+    <rPh sb="0" eb="1">
+      <t>jie guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票</t>
+  </si>
+  <si>
+    <t>税务代开</t>
+  </si>
+  <si>
+    <t>商品销售</t>
+  </si>
+  <si>
+    <t>管理部</t>
+    <rPh sb="0" eb="1">
+      <t>guan li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu men</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>税控自开</t>
+  </si>
+  <si>
+    <t>未开发票</t>
+  </si>
+  <si>
+    <t>服务收入</t>
+  </si>
+  <si>
+    <t>普票，税务代开，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu dai kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税务代开，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税控自开，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税务代开，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu dai k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税控自开，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong zi kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>xiao shou</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票，其他，管理部，商品销售</t>
+    <rPh sb="0" eb="1">
+      <t>wu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shang p</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xiao sho</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税务代开，其他，管理部，服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qt ia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票，税控自开，其他，管理部，服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>pu p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi kai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qt ia</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税务代开，其他，管理部，服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui wu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专票，税控自开，其他，管理部，服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan p</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shui kong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无票，其他，管理部，服务收入</t>
+    <rPh sb="0" eb="1">
+      <t>wu piao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan li bu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普票</t>
+  </si>
+  <si>
+    <t>专票</t>
+  </si>
+  <si>
+    <t>0%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1050</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1550</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1650</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1750</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2854,8 +3324,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2880,8 +3369,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2904,14 +3399,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2925,9 +3434,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3288,7 +3819,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5682,7 +6213,7 @@
       <c r="F84" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5691,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6338,20 +6869,4165 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:J71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J112" s="21"/>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J116" s="21"/>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J118" s="21"/>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J119" s="21"/>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J120" s="21"/>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J121" s="21"/>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J122" s="21"/>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J123" s="21"/>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J124" s="21"/>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J125" s="21"/>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J126" s="21"/>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J127" s="21"/>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J128" s="21"/>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J130" s="21"/>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J131" s="21"/>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J132" s="21"/>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J135" s="21"/>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J136" s="21"/>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J137" s="21"/>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J138" s="21"/>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J139" s="21"/>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J140" s="21"/>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J141" s="21"/>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J142" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71">
+      <formula1>"服务收入,商品销售"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B71">
+      <formula1>"税控自开,税务代开,未开发票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A71">
+      <formula1>"普票,专票,无票"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="11"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="11"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="11"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="11"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="11"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="26"/>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="11"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="26"/>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M20" s="25"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="26"/>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M21" s="25"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="26"/>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M22" s="25"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="26"/>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M23" s="25"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="26"/>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M24" s="25"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="26"/>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="M29" s="25"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="26"/>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M30" s="25"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="26"/>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M31" s="25"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="26"/>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" s="25"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="26"/>
+    </row>
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" s="25"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="26"/>
+    </row>
+    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M34" s="25"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="26"/>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" s="25"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="26"/>
+    </row>
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="26"/>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M37" s="25"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="26"/>
+    </row>
+    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="26"/>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" s="25"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="26"/>
+    </row>
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M40" s="25"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="26"/>
+    </row>
+    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M41" s="25"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" s="25"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="26"/>
+    </row>
+    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="M43" s="25"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="26"/>
+    </row>
+    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="26"/>
+    </row>
+    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="M45" s="25"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="26"/>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="26"/>
+    </row>
+    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="M47" s="25"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="M48" s="25"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="26"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A71">
+      <formula1>"普票,专票,无票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B71">
+      <formula1>"税控自开,税务代开,未开发票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71">
+      <formula1>"服务收入,商品销售"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test_data/cai/invoice/记发票测试数据.xlsx
+++ b/test_data/cai/invoice/记发票测试数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-2620" yWindow="-18300" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="-3800" yWindow="-20540" windowWidth="25600" windowHeight="18300" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="3" r:id="rId1"/>
@@ -6878,8 +6878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="A1:J71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9013,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37:G71"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
